--- a/Exadata.xlsx
+++ b/Exadata.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\forecast\ewfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0813CC93-47B0-490C-A8DC-9E7993A91550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6250"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,14 +111,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F80" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F80" totalsRowShown="0">
   <tableColumns count="6">
-    <tableColumn id="1" name="Date"/>
-    <tableColumn id="2" name="AML"/>
-    <tableColumn id="3" name="ERM"/>
-    <tableColumn id="4" name="SCM"/>
-    <tableColumn id="5" name="MUF"/>
-    <tableColumn id="6" name="MANDIRI ONLINE"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AML"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ERM"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SCM"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MUF"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MANDIRI ONLINE"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -377,18 +386,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="103" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="4" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="4" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -408,7 +419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -428,7 +439,7 @@
         <v>20674</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43862</v>
       </c>
@@ -448,7 +459,7 @@
         <v>21301</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43891</v>
       </c>
@@ -468,7 +479,7 @@
         <v>22914</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43922</v>
       </c>
@@ -488,7 +499,7 @@
         <v>24308</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43952</v>
       </c>
@@ -508,7 +519,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43983</v>
       </c>
@@ -528,7 +539,7 @@
         <v>27559</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44013</v>
       </c>
@@ -548,7 +559,7 @@
         <v>28364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44044</v>
       </c>
@@ -568,7 +579,7 @@
         <v>28522</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44075</v>
       </c>
@@ -588,7 +599,7 @@
         <v>28620</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44105</v>
       </c>
@@ -608,7 +619,7 @@
         <v>28834</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44136</v>
       </c>
@@ -628,7 +639,7 @@
         <v>29298</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44166</v>
       </c>
@@ -648,7 +659,7 @@
         <v>29480</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44197</v>
       </c>
@@ -668,7 +679,7 @@
         <v>29606</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44228</v>
       </c>
@@ -692,144 +703,404 @@
         <v>29906</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B16">
+        <f ca="1">RANDBETWEEN(B2,6000)</f>
+        <v>5778</v>
+      </c>
+      <c r="C16" s="4">
+        <f ca="1">RANDBETWEEN(C2,4000)</f>
+        <v>3453</v>
+      </c>
+      <c r="D16" s="4">
+        <f ca="1">RANDBETWEEN(D2,2000)</f>
+        <v>1471</v>
+      </c>
+      <c r="E16" s="4">
+        <f ca="1">RANDBETWEEN(E2,2500)</f>
+        <v>1844</v>
+      </c>
+      <c r="F16" s="4">
+        <f ca="1">RANDBETWEEN(F2,30000)</f>
+        <v>29314</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" ref="B17:B30" ca="1" si="0">RANDBETWEEN(B3,6000)</f>
+        <v>5575</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:C30" ca="1" si="1">RANDBETWEEN(C3,4000)</f>
+        <v>2980</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:D30" ca="1" si="2">RANDBETWEEN(D3,2000)</f>
+        <v>1809</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ref="E17:E30" ca="1" si="3">RANDBETWEEN(E3,2500)</f>
+        <v>2196</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ref="F17:F30" ca="1" si="4">RANDBETWEEN(F3,30000)</f>
+        <v>25832</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5644</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3551</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1435</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2479</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>25682</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5743</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3848</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1539</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1847</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>24905</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5205</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3223</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1519</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2399</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>28320</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4908</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3766</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1778</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2069</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>28664</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5941</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3095</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1356</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2150</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>29259</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5817</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3112</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1775</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2314</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>28902</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5772</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3191</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1504</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2133</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>28753</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5411</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3377</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1882</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2383</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>29131</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B26" s="4">
+        <f ca="1">RANDBETWEEN(B2,6000)</f>
+        <v>5840</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3568</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1760</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2340</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>29922</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B27" s="4">
+        <f ca="1">RANDBETWEEN(B2,6000)</f>
+        <v>5021</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3601</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1635</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2324</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>29806</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5881</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3835</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2389</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>29740</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5464</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3520</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1951</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2486</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>29999</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5970</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3884</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1599</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2481</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>29525</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -839,7 +1110,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -849,7 +1120,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -859,7 +1130,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -869,7 +1140,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -879,7 +1150,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -889,7 +1160,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -899,7 +1170,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -909,7 +1180,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -919,7 +1190,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -929,7 +1200,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -939,7 +1210,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -949,7 +1220,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -959,7 +1230,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -969,7 +1240,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -979,7 +1250,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -989,7 +1260,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -999,7 +1270,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1009,7 +1280,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1019,7 +1290,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1029,7 +1300,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1039,7 +1310,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1049,7 +1320,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1059,7 +1330,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1069,7 +1340,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
@@ -1079,7 +1350,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
@@ -1089,7 +1360,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
@@ -1099,7 +1370,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
@@ -1109,7 +1380,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
@@ -1119,7 +1390,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
@@ -1129,7 +1400,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
@@ -1139,7 +1410,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
@@ -1149,7 +1420,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
@@ -1159,7 +1430,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
@@ -1169,7 +1440,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -1179,7 +1450,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
@@ -1189,7 +1460,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
@@ -1199,7 +1470,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1211,7 +1482,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1223,7 +1494,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1235,7 +1506,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1247,7 +1518,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1259,7 +1530,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1271,7 +1542,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1283,7 +1554,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1295,7 +1566,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1307,7 +1578,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1319,7 +1590,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1331,7 +1602,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1343,7 +1614,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1363,14 +1634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
